--- a/SIPS/RES_CORRECTIVO.xlsx
+++ b/SIPS/RES_CORRECTIVO.xlsx
@@ -8,18 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ignac\Desktop\SIPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F388086-0862-46B3-A11E-19AB080C5F12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C27B19-F8FF-48FC-99B0-CBDA4FE63845}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tecnicos" sheetId="1" r:id="rId1"/>
     <sheet name="Economicos" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -164,6 +170,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -276,22 +286,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -321,6 +319,24 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -603,13 +619,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView topLeftCell="G25" workbookViewId="0">
+      <selection activeCell="W36" sqref="W36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="7" width="9.140625" style="3"/>
+    <col min="6" max="7" width="9.140625" style="1"/>
     <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="15.42578125" bestFit="1" customWidth="1"/>
@@ -618,68 +634,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="2" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="Y2" s="5" t="s">
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="Y2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
-      <c r="AM2" s="5"/>
-      <c r="AO2" s="6" t="s">
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="22"/>
+      <c r="AO2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="AP2" s="6"/>
-      <c r="AQ2" s="6"/>
-      <c r="AR2" s="6"/>
-      <c r="AS2" s="6"/>
-      <c r="AT2" s="6"/>
+      <c r="AP2" s="23"/>
+      <c r="AQ2" s="23"/>
+      <c r="AR2" s="23"/>
+      <c r="AS2" s="23"/>
+      <c r="AT2" s="23"/>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="27"/>
       <c r="H4" t="s">
         <v>6</v>
       </c>
@@ -689,11 +709,17 @@
       <c r="AO4" t="s">
         <v>15</v>
       </c>
+      <c r="AQ4" s="26"/>
+      <c r="AR4" s="26"/>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="27"/>
       <c r="H5" t="s">
         <v>7</v>
       </c>
@@ -703,11 +729,17 @@
       <c r="AO5" t="s">
         <v>16</v>
       </c>
+      <c r="AQ5" s="26"/>
+      <c r="AR5" s="26"/>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
       <c r="H6" t="s">
         <v>8</v>
       </c>
@@ -717,85 +749,101 @@
       <c r="AO6" t="s">
         <v>17</v>
       </c>
+      <c r="AQ6" s="26"/>
+      <c r="AR6" s="26"/>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="27"/>
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="27"/>
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="2" t="s">
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="Y12" s="5" t="s">
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="Y12" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="5"/>
-      <c r="AE12" s="5"/>
-      <c r="AF12" s="5"/>
-      <c r="AG12" s="5"/>
-      <c r="AH12" s="5"/>
-      <c r="AI12" s="5"/>
-      <c r="AJ12" s="5"/>
-      <c r="AK12" s="5"/>
-      <c r="AL12" s="5"/>
-      <c r="AM12" s="5"/>
-      <c r="AO12" s="6" t="s">
+      <c r="Z12" s="22"/>
+      <c r="AA12" s="22"/>
+      <c r="AB12" s="22"/>
+      <c r="AC12" s="22"/>
+      <c r="AD12" s="22"/>
+      <c r="AE12" s="22"/>
+      <c r="AF12" s="22"/>
+      <c r="AG12" s="22"/>
+      <c r="AH12" s="22"/>
+      <c r="AI12" s="22"/>
+      <c r="AJ12" s="22"/>
+      <c r="AK12" s="22"/>
+      <c r="AL12" s="22"/>
+      <c r="AM12" s="22"/>
+      <c r="AO12" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="AP12" s="6"/>
-      <c r="AQ12" s="6"/>
-      <c r="AR12" s="6"/>
-      <c r="AS12" s="6"/>
-      <c r="AT12" s="6"/>
+      <c r="AP12" s="23"/>
+      <c r="AQ12" s="23"/>
+      <c r="AR12" s="23"/>
+      <c r="AS12" s="23"/>
+      <c r="AT12" s="23"/>
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
+      <c r="E14" s="28"/>
+      <c r="F14" s="29"/>
       <c r="H14" t="s">
         <v>6</v>
       </c>
@@ -805,11 +853,15 @@
       <c r="AO14" t="s">
         <v>15</v>
       </c>
+      <c r="AQ14" s="25"/>
+      <c r="AR14" s="25"/>
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
+      <c r="E15" s="28"/>
+      <c r="F15" s="29"/>
       <c r="H15" t="s">
         <v>7</v>
       </c>
@@ -819,11 +871,15 @@
       <c r="AO15" t="s">
         <v>16</v>
       </c>
+      <c r="AQ15" s="25"/>
+      <c r="AR15" s="25"/>
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
+      <c r="E16" s="28"/>
+      <c r="F16" s="29"/>
       <c r="H16" t="s">
         <v>8</v>
       </c>
@@ -833,85 +889,95 @@
       <c r="AO16" t="s">
         <v>17</v>
       </c>
+      <c r="AQ16" s="25"/>
+      <c r="AR16" s="25"/>
     </row>
     <row r="17" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
+      <c r="E17" s="28"/>
+      <c r="F17" s="29"/>
     </row>
     <row r="18" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
+      <c r="E18" s="28"/>
+      <c r="F18" s="29"/>
     </row>
     <row r="19" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
+      <c r="E19" s="28"/>
+      <c r="F19" s="29"/>
     </row>
     <row r="21" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="K21" s="7" t="s">
+      <c r="K21" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="2" t="s">
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="Y22" s="5" t="s">
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="21"/>
+      <c r="Y22" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="Z22" s="5"/>
-      <c r="AA22" s="5"/>
-      <c r="AB22" s="5"/>
-      <c r="AC22" s="5"/>
-      <c r="AD22" s="5"/>
-      <c r="AE22" s="5"/>
-      <c r="AF22" s="5"/>
-      <c r="AG22" s="5"/>
-      <c r="AH22" s="5"/>
-      <c r="AI22" s="5"/>
-      <c r="AJ22" s="5"/>
-      <c r="AK22" s="5"/>
-      <c r="AL22" s="5"/>
-      <c r="AM22" s="5"/>
-      <c r="AO22" s="6" t="s">
+      <c r="Z22" s="22"/>
+      <c r="AA22" s="22"/>
+      <c r="AB22" s="22"/>
+      <c r="AC22" s="22"/>
+      <c r="AD22" s="22"/>
+      <c r="AE22" s="22"/>
+      <c r="AF22" s="22"/>
+      <c r="AG22" s="22"/>
+      <c r="AH22" s="22"/>
+      <c r="AI22" s="22"/>
+      <c r="AJ22" s="22"/>
+      <c r="AK22" s="22"/>
+      <c r="AL22" s="22"/>
+      <c r="AM22" s="22"/>
+      <c r="AO22" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="AP22" s="6"/>
-      <c r="AQ22" s="6"/>
-      <c r="AR22" s="6"/>
-      <c r="AS22" s="6"/>
-      <c r="AT22" s="6"/>
+      <c r="AP22" s="23"/>
+      <c r="AQ22" s="23"/>
+      <c r="AR22" s="23"/>
+      <c r="AS22" s="23"/>
+      <c r="AT22" s="23"/>
     </row>
     <row r="24" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
+      <c r="E24" s="28"/>
+      <c r="F24" s="29"/>
       <c r="H24" t="s">
         <v>6</v>
       </c>
@@ -921,11 +987,15 @@
       <c r="AO24" t="s">
         <v>15</v>
       </c>
+      <c r="AQ24" s="25"/>
+      <c r="AR24" s="25"/>
     </row>
     <row r="25" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1</v>
       </c>
+      <c r="E25" s="28"/>
+      <c r="F25" s="29"/>
       <c r="H25" t="s">
         <v>7</v>
       </c>
@@ -935,11 +1005,15 @@
       <c r="AO25" t="s">
         <v>16</v>
       </c>
+      <c r="AQ25" s="25"/>
+      <c r="AR25" s="25"/>
     </row>
     <row r="26" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>2</v>
       </c>
+      <c r="E26" s="28"/>
+      <c r="F26" s="29"/>
       <c r="H26" t="s">
         <v>8</v>
       </c>
@@ -949,85 +1023,95 @@
       <c r="AO26" t="s">
         <v>17</v>
       </c>
+      <c r="AQ26" s="25"/>
+      <c r="AR26" s="25"/>
     </row>
     <row r="27" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>3</v>
       </c>
+      <c r="E27" s="28"/>
+      <c r="F27" s="29"/>
     </row>
     <row r="28" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>4</v>
       </c>
+      <c r="E28" s="28"/>
+      <c r="F28" s="29"/>
     </row>
     <row r="29" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>5</v>
       </c>
+      <c r="E29" s="28"/>
+      <c r="F29" s="29"/>
     </row>
     <row r="31" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="K31" s="7" t="s">
+      <c r="K31" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="2" t="s">
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
-      <c r="V32" s="2"/>
-      <c r="W32" s="2"/>
-      <c r="Y32" s="5" t="s">
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21"/>
+      <c r="W32" s="21"/>
+      <c r="Y32" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="Z32" s="5"/>
-      <c r="AA32" s="5"/>
-      <c r="AB32" s="5"/>
-      <c r="AC32" s="5"/>
-      <c r="AD32" s="5"/>
-      <c r="AE32" s="5"/>
-      <c r="AF32" s="5"/>
-      <c r="AG32" s="5"/>
-      <c r="AH32" s="5"/>
-      <c r="AI32" s="5"/>
-      <c r="AJ32" s="5"/>
-      <c r="AK32" s="5"/>
-      <c r="AL32" s="5"/>
-      <c r="AM32" s="5"/>
-      <c r="AO32" s="6" t="s">
+      <c r="Z32" s="22"/>
+      <c r="AA32" s="22"/>
+      <c r="AB32" s="22"/>
+      <c r="AC32" s="22"/>
+      <c r="AD32" s="22"/>
+      <c r="AE32" s="22"/>
+      <c r="AF32" s="22"/>
+      <c r="AG32" s="22"/>
+      <c r="AH32" s="22"/>
+      <c r="AI32" s="22"/>
+      <c r="AJ32" s="22"/>
+      <c r="AK32" s="22"/>
+      <c r="AL32" s="22"/>
+      <c r="AM32" s="22"/>
+      <c r="AO32" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="AP32" s="6"/>
-      <c r="AQ32" s="6"/>
-      <c r="AR32" s="6"/>
-      <c r="AS32" s="6"/>
-      <c r="AT32" s="6"/>
+      <c r="AP32" s="23"/>
+      <c r="AQ32" s="23"/>
+      <c r="AR32" s="23"/>
+      <c r="AS32" s="23"/>
+      <c r="AT32" s="23"/>
     </row>
     <row r="34" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
+      <c r="E34" s="28"/>
+      <c r="F34" s="29"/>
       <c r="H34" t="s">
         <v>6</v>
       </c>
@@ -1037,11 +1121,15 @@
       <c r="AO34" t="s">
         <v>15</v>
       </c>
+      <c r="AQ34" s="25"/>
+      <c r="AR34" s="25"/>
     </row>
     <row r="35" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1</v>
       </c>
+      <c r="E35" s="28"/>
+      <c r="F35" s="29"/>
       <c r="H35" t="s">
         <v>7</v>
       </c>
@@ -1051,11 +1139,15 @@
       <c r="AO35" t="s">
         <v>16</v>
       </c>
+      <c r="AQ35" s="25"/>
+      <c r="AR35" s="25"/>
     </row>
     <row r="36" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>2</v>
       </c>
+      <c r="E36" s="28"/>
+      <c r="F36" s="29"/>
       <c r="H36" t="s">
         <v>8</v>
       </c>
@@ -1065,85 +1157,95 @@
       <c r="AO36" t="s">
         <v>17</v>
       </c>
+      <c r="AQ36" s="25"/>
+      <c r="AR36" s="25"/>
     </row>
     <row r="37" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>3</v>
       </c>
+      <c r="E37" s="28"/>
+      <c r="F37" s="29"/>
     </row>
     <row r="38" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>4</v>
       </c>
+      <c r="E38" s="28"/>
+      <c r="F38" s="29"/>
     </row>
     <row r="39" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>5</v>
       </c>
+      <c r="E39" s="28"/>
+      <c r="F39" s="29"/>
     </row>
     <row r="41" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="K41" s="7" t="s">
+      <c r="K41" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="2" t="s">
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
-      <c r="Y42" s="5" t="s">
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="21"/>
+      <c r="R42" s="21"/>
+      <c r="S42" s="21"/>
+      <c r="T42" s="21"/>
+      <c r="U42" s="21"/>
+      <c r="V42" s="21"/>
+      <c r="W42" s="21"/>
+      <c r="Y42" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="Z42" s="5"/>
-      <c r="AA42" s="5"/>
-      <c r="AB42" s="5"/>
-      <c r="AC42" s="5"/>
-      <c r="AD42" s="5"/>
-      <c r="AE42" s="5"/>
-      <c r="AF42" s="5"/>
-      <c r="AG42" s="5"/>
-      <c r="AH42" s="5"/>
-      <c r="AI42" s="5"/>
-      <c r="AJ42" s="5"/>
-      <c r="AK42" s="5"/>
-      <c r="AL42" s="5"/>
-      <c r="AM42" s="5"/>
-      <c r="AO42" s="6" t="s">
+      <c r="Z42" s="22"/>
+      <c r="AA42" s="22"/>
+      <c r="AB42" s="22"/>
+      <c r="AC42" s="22"/>
+      <c r="AD42" s="22"/>
+      <c r="AE42" s="22"/>
+      <c r="AF42" s="22"/>
+      <c r="AG42" s="22"/>
+      <c r="AH42" s="22"/>
+      <c r="AI42" s="22"/>
+      <c r="AJ42" s="22"/>
+      <c r="AK42" s="22"/>
+      <c r="AL42" s="22"/>
+      <c r="AM42" s="22"/>
+      <c r="AO42" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="AP42" s="6"/>
-      <c r="AQ42" s="6"/>
-      <c r="AR42" s="6"/>
-      <c r="AS42" s="6"/>
-      <c r="AT42" s="6"/>
+      <c r="AP42" s="23"/>
+      <c r="AQ42" s="23"/>
+      <c r="AR42" s="23"/>
+      <c r="AS42" s="23"/>
+      <c r="AT42" s="23"/>
     </row>
     <row r="44" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>0</v>
       </c>
+      <c r="E44" s="28"/>
+      <c r="F44" s="29"/>
       <c r="H44" t="s">
         <v>6</v>
       </c>
@@ -1153,11 +1255,15 @@
       <c r="AO44" t="s">
         <v>15</v>
       </c>
+      <c r="AQ44" s="25"/>
+      <c r="AR44" s="25"/>
     </row>
     <row r="45" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>1</v>
       </c>
+      <c r="E45" s="28"/>
+      <c r="F45" s="29"/>
       <c r="H45" t="s">
         <v>7</v>
       </c>
@@ -1167,11 +1273,15 @@
       <c r="AO45" t="s">
         <v>16</v>
       </c>
+      <c r="AQ45" s="25"/>
+      <c r="AR45" s="25"/>
     </row>
     <row r="46" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>2</v>
       </c>
+      <c r="E46" s="28"/>
+      <c r="F46" s="29"/>
       <c r="H46" t="s">
         <v>8</v>
       </c>
@@ -1181,85 +1291,95 @@
       <c r="AO46" t="s">
         <v>17</v>
       </c>
+      <c r="AQ46" s="25"/>
+      <c r="AR46" s="25"/>
     </row>
     <row r="47" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>3</v>
       </c>
+      <c r="E47" s="28"/>
+      <c r="F47" s="29"/>
     </row>
     <row r="48" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>4</v>
       </c>
+      <c r="E48" s="28"/>
+      <c r="F48" s="29"/>
     </row>
     <row r="49" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>5</v>
       </c>
+      <c r="E49" s="28"/>
+      <c r="F49" s="29"/>
     </row>
     <row r="51" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="K51" s="7" t="s">
+      <c r="K51" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="52" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="2" t="s">
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="2"/>
-      <c r="R52" s="2"/>
-      <c r="S52" s="2"/>
-      <c r="T52" s="2"/>
-      <c r="U52" s="2"/>
-      <c r="V52" s="2"/>
-      <c r="W52" s="2"/>
-      <c r="Y52" s="5" t="s">
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="21"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="21"/>
+      <c r="Q52" s="21"/>
+      <c r="R52" s="21"/>
+      <c r="S52" s="21"/>
+      <c r="T52" s="21"/>
+      <c r="U52" s="21"/>
+      <c r="V52" s="21"/>
+      <c r="W52" s="21"/>
+      <c r="Y52" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="Z52" s="5"/>
-      <c r="AA52" s="5"/>
-      <c r="AB52" s="5"/>
-      <c r="AC52" s="5"/>
-      <c r="AD52" s="5"/>
-      <c r="AE52" s="5"/>
-      <c r="AF52" s="5"/>
-      <c r="AG52" s="5"/>
-      <c r="AH52" s="5"/>
-      <c r="AI52" s="5"/>
-      <c r="AJ52" s="5"/>
-      <c r="AK52" s="5"/>
-      <c r="AL52" s="5"/>
-      <c r="AM52" s="5"/>
-      <c r="AO52" s="6" t="s">
+      <c r="Z52" s="22"/>
+      <c r="AA52" s="22"/>
+      <c r="AB52" s="22"/>
+      <c r="AC52" s="22"/>
+      <c r="AD52" s="22"/>
+      <c r="AE52" s="22"/>
+      <c r="AF52" s="22"/>
+      <c r="AG52" s="22"/>
+      <c r="AH52" s="22"/>
+      <c r="AI52" s="22"/>
+      <c r="AJ52" s="22"/>
+      <c r="AK52" s="22"/>
+      <c r="AL52" s="22"/>
+      <c r="AM52" s="22"/>
+      <c r="AO52" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="AP52" s="6"/>
-      <c r="AQ52" s="6"/>
-      <c r="AR52" s="6"/>
-      <c r="AS52" s="6"/>
-      <c r="AT52" s="6"/>
+      <c r="AP52" s="23"/>
+      <c r="AQ52" s="23"/>
+      <c r="AR52" s="23"/>
+      <c r="AS52" s="23"/>
+      <c r="AT52" s="23"/>
     </row>
     <row r="54" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>0</v>
       </c>
+      <c r="E54" s="28"/>
+      <c r="F54" s="29"/>
       <c r="H54" t="s">
         <v>6</v>
       </c>
@@ -1269,11 +1389,15 @@
       <c r="AO54" t="s">
         <v>15</v>
       </c>
+      <c r="AQ54" s="25"/>
+      <c r="AR54" s="25"/>
     </row>
     <row r="55" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>1</v>
       </c>
+      <c r="E55" s="28"/>
+      <c r="F55" s="29"/>
       <c r="H55" t="s">
         <v>7</v>
       </c>
@@ -1283,11 +1407,15 @@
       <c r="AO55" t="s">
         <v>16</v>
       </c>
+      <c r="AQ55" s="25"/>
+      <c r="AR55" s="25"/>
     </row>
     <row r="56" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>2</v>
       </c>
+      <c r="E56" s="28"/>
+      <c r="F56" s="29"/>
       <c r="H56" t="s">
         <v>8</v>
       </c>
@@ -1297,85 +1425,95 @@
       <c r="AO56" t="s">
         <v>17</v>
       </c>
+      <c r="AQ56" s="25"/>
+      <c r="AR56" s="25"/>
     </row>
     <row r="57" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>3</v>
       </c>
+      <c r="E57" s="28"/>
+      <c r="F57" s="29"/>
     </row>
     <row r="58" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>4</v>
       </c>
+      <c r="E58" s="28"/>
+      <c r="F58" s="29"/>
     </row>
     <row r="59" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>5</v>
       </c>
+      <c r="E59" s="28"/>
+      <c r="F59" s="29"/>
     </row>
     <row r="61" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="K61" s="7" t="s">
+      <c r="K61" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="2" t="s">
+      <c r="B62" s="20"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
-      <c r="P62" s="2"/>
-      <c r="Q62" s="2"/>
-      <c r="R62" s="2"/>
-      <c r="S62" s="2"/>
-      <c r="T62" s="2"/>
-      <c r="U62" s="2"/>
-      <c r="V62" s="2"/>
-      <c r="W62" s="2"/>
-      <c r="Y62" s="5" t="s">
+      <c r="I62" s="21"/>
+      <c r="J62" s="21"/>
+      <c r="K62" s="21"/>
+      <c r="L62" s="21"/>
+      <c r="M62" s="21"/>
+      <c r="N62" s="21"/>
+      <c r="O62" s="21"/>
+      <c r="P62" s="21"/>
+      <c r="Q62" s="21"/>
+      <c r="R62" s="21"/>
+      <c r="S62" s="21"/>
+      <c r="T62" s="21"/>
+      <c r="U62" s="21"/>
+      <c r="V62" s="21"/>
+      <c r="W62" s="21"/>
+      <c r="Y62" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="Z62" s="5"/>
-      <c r="AA62" s="5"/>
-      <c r="AB62" s="5"/>
-      <c r="AC62" s="5"/>
-      <c r="AD62" s="5"/>
-      <c r="AE62" s="5"/>
-      <c r="AF62" s="5"/>
-      <c r="AG62" s="5"/>
-      <c r="AH62" s="5"/>
-      <c r="AI62" s="5"/>
-      <c r="AJ62" s="5"/>
-      <c r="AK62" s="5"/>
-      <c r="AL62" s="5"/>
-      <c r="AM62" s="5"/>
-      <c r="AO62" s="6" t="s">
+      <c r="Z62" s="22"/>
+      <c r="AA62" s="22"/>
+      <c r="AB62" s="22"/>
+      <c r="AC62" s="22"/>
+      <c r="AD62" s="22"/>
+      <c r="AE62" s="22"/>
+      <c r="AF62" s="22"/>
+      <c r="AG62" s="22"/>
+      <c r="AH62" s="22"/>
+      <c r="AI62" s="22"/>
+      <c r="AJ62" s="22"/>
+      <c r="AK62" s="22"/>
+      <c r="AL62" s="22"/>
+      <c r="AM62" s="22"/>
+      <c r="AO62" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="AP62" s="6"/>
-      <c r="AQ62" s="6"/>
-      <c r="AR62" s="6"/>
-      <c r="AS62" s="6"/>
-      <c r="AT62" s="6"/>
+      <c r="AP62" s="23"/>
+      <c r="AQ62" s="23"/>
+      <c r="AR62" s="23"/>
+      <c r="AS62" s="23"/>
+      <c r="AT62" s="23"/>
     </row>
     <row r="64" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>0</v>
       </c>
+      <c r="E64" s="28"/>
+      <c r="F64" s="29"/>
       <c r="H64" t="s">
         <v>6</v>
       </c>
@@ -1385,11 +1523,15 @@
       <c r="AO64" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="65" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AQ64" s="25"/>
+      <c r="AR64" s="25"/>
+    </row>
+    <row r="65" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>1</v>
       </c>
+      <c r="E65" s="28"/>
+      <c r="F65" s="29"/>
       <c r="H65" t="s">
         <v>7</v>
       </c>
@@ -1399,11 +1541,15 @@
       <c r="AO65" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="66" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AQ65" s="25"/>
+      <c r="AR65" s="25"/>
+    </row>
+    <row r="66" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>2</v>
       </c>
+      <c r="E66" s="28"/>
+      <c r="F66" s="29"/>
       <c r="H66" t="s">
         <v>8</v>
       </c>
@@ -1413,24 +1559,48 @@
       <c r="AO66" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="67" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AQ66" s="25"/>
+      <c r="AR66" s="25"/>
+    </row>
+    <row r="67" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="68" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="E67" s="28"/>
+      <c r="F67" s="29"/>
+    </row>
+    <row r="68" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="69" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="E68" s="28"/>
+      <c r="F68" s="29"/>
+    </row>
+    <row r="69" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>5</v>
       </c>
+      <c r="E69" s="28"/>
+      <c r="F69" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="Y2:AM2"/>
+    <mergeCell ref="AO2:AT2"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="H12:W12"/>
+    <mergeCell ref="Y12:AM12"/>
+    <mergeCell ref="AO12:AT12"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="H2:W2"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="H22:W22"/>
+    <mergeCell ref="Y22:AM22"/>
+    <mergeCell ref="AO22:AT22"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="H32:W32"/>
+    <mergeCell ref="Y32:AM32"/>
+    <mergeCell ref="AO32:AT32"/>
     <mergeCell ref="A62:F62"/>
     <mergeCell ref="H62:W62"/>
     <mergeCell ref="Y62:AM62"/>
@@ -1443,22 +1613,6 @@
     <mergeCell ref="H52:W52"/>
     <mergeCell ref="Y52:AM52"/>
     <mergeCell ref="AO52:AT52"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="H22:W22"/>
-    <mergeCell ref="Y22:AM22"/>
-    <mergeCell ref="AO22:AT22"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="H32:W32"/>
-    <mergeCell ref="Y32:AM32"/>
-    <mergeCell ref="AO32:AT32"/>
-    <mergeCell ref="Y2:AM2"/>
-    <mergeCell ref="AO2:AT2"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="H12:W12"/>
-    <mergeCell ref="Y12:AM12"/>
-    <mergeCell ref="AO12:AT12"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="H2:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -1470,7 +1624,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1480,376 +1634,376 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="16"/>
-      <c r="B1" s="17" t="s">
+      <c r="A1" s="12"/>
+      <c r="B1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="23" t="s">
+      <c r="J1" s="4"/>
+      <c r="K1" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="11"/>
+      <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="8">
         <v>90</v>
       </c>
-      <c r="C2" s="12">
-        <v>0</v>
-      </c>
-      <c r="D2" s="12">
+      <c r="C2" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2" s="8">
         <v>100</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="8">
         <v>100</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="8">
         <v>90</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="8">
         <v>90</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="8">
         <v>80</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="9">
         <v>1</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="20">
+      <c r="J2" s="4"/>
+      <c r="K2" s="16">
         <v>10074</v>
       </c>
-      <c r="L2" s="10"/>
+      <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="8">
         <v>60</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="8">
         <v>100</v>
       </c>
-      <c r="D3" s="12">
-        <v>0</v>
-      </c>
-      <c r="E3" s="12">
+      <c r="D3" s="8">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8">
         <v>110</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="8">
         <v>60</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="8">
         <v>60</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="8">
         <v>60</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="9">
         <v>1</v>
       </c>
-      <c r="J3" s="8"/>
+      <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="8">
         <v>60</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="8">
         <v>110</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="8">
         <v>110</v>
       </c>
-      <c r="E4" s="12">
-        <v>0</v>
-      </c>
-      <c r="F4" s="12">
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8">
         <v>60</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="8">
         <v>60</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="8">
         <v>70</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="9">
         <v>1</v>
       </c>
-      <c r="J4" s="8"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="11">
         <v>20</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="11">
         <v>-23.333333333333329</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="11">
         <v>43.333333333333336</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="11">
         <v>6.6666666666666714</v>
       </c>
-      <c r="F5" s="15">
-        <v>0</v>
-      </c>
-      <c r="G5" s="15">
-        <v>0</v>
-      </c>
-      <c r="H5" s="15">
+      <c r="F5" s="11">
+        <v>0</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0</v>
+      </c>
+      <c r="H5" s="11">
         <v>50</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="8"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="11">
         <v>20</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="11">
         <v>16.666666666666657</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="11">
         <v>-16.666666666666664</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="11">
         <v>56.666666666666664</v>
       </c>
-      <c r="F6" s="15">
-        <v>0</v>
-      </c>
-      <c r="G6" s="15">
-        <v>0</v>
-      </c>
-      <c r="H6" s="15">
+      <c r="F6" s="11">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0</v>
+      </c>
+      <c r="H6" s="11">
         <v>50</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="8"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="11">
         <v>40</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="11">
         <v>-6.6666666666666714</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="11">
         <v>26.666666666666671</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="11">
         <v>63.333333333333336</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="11">
         <v>60</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="11">
         <v>60</v>
       </c>
-      <c r="H7" s="15">
-        <v>0</v>
-      </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="8"/>
+      <c r="H7" s="11">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="21">
-        <v>0</v>
-      </c>
-      <c r="C8" s="21">
-        <v>0</v>
-      </c>
-      <c r="D8" s="21">
+      <c r="B8" s="17">
+        <v>0</v>
+      </c>
+      <c r="C8" s="17">
+        <v>0</v>
+      </c>
+      <c r="D8" s="17">
         <v>10</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="17">
         <v>10</v>
       </c>
-      <c r="F8" s="21">
-        <v>0</v>
-      </c>
-      <c r="G8" s="21">
-        <v>0</v>
-      </c>
-      <c r="H8" s="21">
-        <v>0</v>
-      </c>
-      <c r="I8" s="13"/>
+      <c r="F8" s="17">
+        <v>0</v>
+      </c>
+      <c r="G8" s="17">
+        <v>0</v>
+      </c>
+      <c r="H8" s="17">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="21">
-        <v>0</v>
-      </c>
-      <c r="C9" s="21">
+      <c r="B9" s="17">
+        <v>0</v>
+      </c>
+      <c r="C9" s="17">
         <v>40</v>
       </c>
-      <c r="D9" s="21">
-        <v>0</v>
-      </c>
-      <c r="E9" s="21">
+      <c r="D9" s="17">
+        <v>0</v>
+      </c>
+      <c r="E9" s="17">
         <v>50</v>
       </c>
-      <c r="F9" s="21">
-        <v>0</v>
-      </c>
-      <c r="G9" s="21">
-        <v>0</v>
-      </c>
-      <c r="H9" s="21">
-        <v>0</v>
-      </c>
-      <c r="I9" s="13"/>
+      <c r="F9" s="17">
+        <v>0</v>
+      </c>
+      <c r="G9" s="17">
+        <v>0</v>
+      </c>
+      <c r="H9" s="17">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="21">
-        <v>0</v>
-      </c>
-      <c r="C10" s="21">
+      <c r="B10" s="17">
+        <v>0</v>
+      </c>
+      <c r="C10" s="17">
         <v>50</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="17">
         <v>50</v>
       </c>
-      <c r="E10" s="21">
-        <v>0</v>
-      </c>
-      <c r="F10" s="21">
-        <v>0</v>
-      </c>
-      <c r="G10" s="21">
-        <v>0</v>
-      </c>
-      <c r="H10" s="21">
+      <c r="E10" s="17">
+        <v>0</v>
+      </c>
+      <c r="F10" s="17">
+        <v>0</v>
+      </c>
+      <c r="G10" s="17">
+        <v>0</v>
+      </c>
+      <c r="H10" s="17">
         <v>10</v>
       </c>
-      <c r="I10" s="13"/>
+      <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="22">
-        <v>0</v>
-      </c>
-      <c r="C11" s="22">
-        <v>0</v>
-      </c>
-      <c r="D11" s="22">
-        <v>0</v>
-      </c>
-      <c r="E11" s="22">
-        <v>0</v>
-      </c>
-      <c r="F11" s="22">
-        <v>0</v>
-      </c>
-      <c r="G11" s="22">
-        <v>0</v>
-      </c>
-      <c r="H11" s="22">
+      <c r="B11" s="18">
+        <v>0</v>
+      </c>
+      <c r="C11" s="18">
+        <v>0</v>
+      </c>
+      <c r="D11" s="18">
+        <v>0</v>
+      </c>
+      <c r="E11" s="18">
+        <v>0</v>
+      </c>
+      <c r="F11" s="18">
+        <v>0</v>
+      </c>
+      <c r="G11" s="18">
+        <v>0</v>
+      </c>
+      <c r="H11" s="18">
         <v>10</v>
       </c>
-      <c r="I11" s="13"/>
+      <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="22">
-        <v>0</v>
-      </c>
-      <c r="C12" s="22">
-        <v>0</v>
-      </c>
-      <c r="D12" s="22">
-        <v>0</v>
-      </c>
-      <c r="E12" s="22">
-        <v>0</v>
-      </c>
-      <c r="F12" s="22">
-        <v>0</v>
-      </c>
-      <c r="G12" s="22">
-        <v>0</v>
-      </c>
-      <c r="H12" s="22">
-        <v>0</v>
-      </c>
-      <c r="I12" s="13"/>
+      <c r="B12" s="18">
+        <v>0</v>
+      </c>
+      <c r="C12" s="18">
+        <v>0</v>
+      </c>
+      <c r="D12" s="18">
+        <v>0</v>
+      </c>
+      <c r="E12" s="18">
+        <v>0</v>
+      </c>
+      <c r="F12" s="18">
+        <v>0</v>
+      </c>
+      <c r="G12" s="18">
+        <v>0</v>
+      </c>
+      <c r="H12" s="18">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="22">
-        <v>0</v>
-      </c>
-      <c r="C13" s="22">
-        <v>0</v>
-      </c>
-      <c r="D13" s="22">
-        <v>0</v>
-      </c>
-      <c r="E13" s="22">
-        <v>0</v>
-      </c>
-      <c r="F13" s="22">
-        <v>0</v>
-      </c>
-      <c r="G13" s="22">
-        <v>0</v>
-      </c>
-      <c r="H13" s="22">
-        <v>0</v>
-      </c>
-      <c r="I13" s="13"/>
+      <c r="B13" s="18">
+        <v>0</v>
+      </c>
+      <c r="C13" s="18">
+        <v>0</v>
+      </c>
+      <c r="D13" s="18">
+        <v>0</v>
+      </c>
+      <c r="E13" s="18">
+        <v>0</v>
+      </c>
+      <c r="F13" s="18">
+        <v>0</v>
+      </c>
+      <c r="G13" s="18">
+        <v>0</v>
+      </c>
+      <c r="H13" s="18">
+        <v>0</v>
+      </c>
+      <c r="I13" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
